--- a/Crypto/Labs/Lab_9/1_1.xlsx
+++ b/Crypto/Labs/Lab_9/1_1.xlsx
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -727,6 +727,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="5"/>
+      <c r="J3">
+        <f>COUNTIF(F3:F33,1)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="17.25">
       <c r="A4" s="2">
@@ -742,7 +746,7 @@
       </c>
       <c r="D4" s="4">
         <f>C3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f>D3</f>
@@ -750,15 +754,19 @@
       </c>
       <c r="F4" s="2">
         <f>E3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5" t="b">
-        <f>_xlfn.XOR(F3,D3,C3)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F3,D3)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(F3:F33,0)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="17.25">
@@ -779,7 +787,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
@@ -790,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="b">
-        <f>_xlfn.XOR(F4,D4,C4)</f>
+        <f>_xlfn.XOR(F4,D4)</f>
         <v>0</v>
       </c>
     </row>
@@ -800,7 +808,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
@@ -816,15 +824,15 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5" t="b">
-        <f>_xlfn.XOR(F5,D5,C5)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F5,D5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="17.25">
@@ -833,11 +841,11 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="2"/>
@@ -856,8 +864,8 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="b">
-        <f>_xlfn.XOR(F6,D6,C6)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F6,D6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="17.25">
@@ -870,11 +878,11 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="2"/>
@@ -889,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="5" t="b">
-        <f>_xlfn.XOR(F7,D7,C7)</f>
+        <f>_xlfn.XOR(F7,D7)</f>
         <v>0</v>
       </c>
     </row>
@@ -907,11 +915,11 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
@@ -922,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="b">
-        <f>_xlfn.XOR(F8,D8,C8)</f>
+        <f>_xlfn.XOR(F8,D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -932,7 +940,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
@@ -944,19 +952,19 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="b">
-        <f>_xlfn.XOR(F9,D9,C9)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F9,D9)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="17.25">
@@ -965,11 +973,11 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="2"/>
@@ -981,15 +989,15 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="b">
-        <f>_xlfn.XOR(F10,D10,C10)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F10,D10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="17.25">
@@ -1002,11 +1010,11 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="2"/>
@@ -1021,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="b">
-        <f>_xlfn.XOR(F11,D11,C11)</f>
+        <f>_xlfn.XOR(F11,D11)</f>
         <v>0</v>
       </c>
     </row>
@@ -1031,7 +1039,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="2"/>
@@ -1039,11 +1047,11 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
@@ -1054,8 +1062,8 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="b">
-        <f>_xlfn.XOR(F12,D12,C12)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F12,D12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="17.25">
@@ -1064,11 +1072,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="2"/>
@@ -1076,19 +1084,19 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5" t="b">
-        <f>_xlfn.XOR(F13,D13,C13)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F13,D13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="17.25">
@@ -1101,11 +1109,11 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="2"/>
@@ -1113,14 +1121,14 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="b">
-        <f>_xlfn.XOR(F14,D14,C14)</f>
+        <f>_xlfn.XOR(F14,D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -1138,11 +1146,11 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
@@ -1153,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="b">
-        <f>_xlfn.XOR(F15,D15,C15)</f>
+        <f>_xlfn.XOR(F15,D15)</f>
         <v>1</v>
       </c>
     </row>
@@ -1163,7 +1171,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="2"/>
@@ -1175,19 +1183,19 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="b">
-        <f>_xlfn.XOR(F16,D16,C16)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F16,D16)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="17.25">
@@ -1200,7 +1208,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="2"/>
@@ -1212,14 +1220,14 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="b">
-        <f>_xlfn.XOR(F17,D17,C17)</f>
+        <f>_xlfn.XOR(F17,D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1229,7 +1237,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="2"/>
@@ -1237,7 +1245,7 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="2"/>
@@ -1252,8 +1260,8 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="b">
-        <f>_xlfn.XOR(F18,D18,C18)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F18,D18)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="17.25">
@@ -1262,11 +1270,11 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
@@ -1274,7 +1282,7 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
@@ -1285,8 +1293,8 @@
         <v>1</v>
       </c>
       <c r="H20" s="5" t="b">
-        <f>_xlfn.XOR(F19,D19,C19)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F19,D19)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="17.25">
@@ -1295,15 +1303,15 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ref="C21:F34" si="4">B20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="4"/>
@@ -1311,15 +1319,15 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5" t="b">
-        <f>_xlfn.XOR(F20,D20,C20)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F20,D20)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="17.25">
@@ -1332,15 +1340,15 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="4"/>
@@ -1351,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="5" t="b">
-        <f>_xlfn.XOR(F21,D21,C21)</f>
+        <f>_xlfn.XOR(F21,D21)</f>
         <v>1</v>
       </c>
     </row>
@@ -1361,7 +1369,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
@@ -1369,23 +1377,23 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5" t="b">
-        <f>_xlfn.XOR(F22,D22,C22)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F22,D22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="17.25">
@@ -1394,11 +1402,11 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="4"/>
@@ -1406,19 +1414,19 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="5" t="b">
-        <f>_xlfn.XOR(F23,D23,C23)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F23,D23)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="17.25">
@@ -1427,15 +1435,15 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="4"/>
@@ -1443,15 +1451,15 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5" t="b">
-        <f>_xlfn.XOR(F24,D24,C24)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F24,D24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="17.25">
@@ -1464,15 +1472,15 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="4"/>
@@ -1483,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="5" t="b">
-        <f>_xlfn.XOR(F25,D25,C25)</f>
+        <f>_xlfn.XOR(F25,D25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1501,22 +1509,22 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="5" t="b">
-        <f>_xlfn.XOR(F26,D26,C26)</f>
+        <f>_xlfn.XOR(F26,D26)</f>
         <v>0</v>
       </c>
     </row>
@@ -1538,18 +1546,18 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5" t="b">
-        <f>_xlfn.XOR(F27,D27,C27)</f>
+        <f>_xlfn.XOR(F27,D27)</f>
         <v>1</v>
       </c>
     </row>
@@ -1559,7 +1567,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="4"/>
@@ -1575,15 +1583,15 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5" t="b">
-        <f>_xlfn.XOR(F28,D28,C28)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F28,D28)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="17.25">
@@ -1596,7 +1604,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="4"/>
@@ -1615,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="b">
-        <f>_xlfn.XOR(F29,D29,C29)</f>
+        <f>_xlfn.XOR(F29,D29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1633,7 +1641,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="4"/>
@@ -1648,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="5" t="b">
-        <f>_xlfn.XOR(F30,D30,C30)</f>
+        <f>_xlfn.XOR(F30,D30)</f>
         <v>1</v>
       </c>
     </row>
@@ -1658,7 +1666,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="4"/>
@@ -1670,7 +1678,7 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="4"/>
@@ -1681,8 +1689,8 @@
         <v>1</v>
       </c>
       <c r="H32" s="5" t="b">
-        <f>_xlfn.XOR(F31,D31,C31)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F31,D31)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="17.25">
@@ -1691,11 +1699,11 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="4"/>
@@ -1707,15 +1715,15 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="5" t="b">
-        <f>_xlfn.XOR(F32,D32,C32)</f>
-        <v>0</v>
+        <f>_xlfn.XOR(F32,D32)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="17.25">
@@ -1724,15 +1732,15 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="4"/>
@@ -1747,8 +1755,8 @@
         <v>0</v>
       </c>
       <c r="H34" s="5" t="b">
-        <f>_xlfn.XOR(F33,D33,C33)</f>
-        <v>1</v>
+        <f>_xlfn.XOR(F33,D33)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1769,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{00EA00D0-0083-44EB-9891-00FC00D200B0}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{00F00096-0036-454A-9703-0053001C0023}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1778,7 +1786,7 @@
           <xm:sqref>B3:E3 D4:E34 B4:B34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{00C6002A-0038-473F-8F83-008E005000C3}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{00FC0058-00F5-4BF1-9DB7-00D000EA0042}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1795,7 +1803,7 @@
           <xm:sqref>C2:E2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{00C4008D-0025-4BF2-AEA9-000900ED0065}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{00EC00D4-004C-4973-80F2-00B10037009F}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1812,7 +1820,7 @@
           <xm:sqref>C4:C34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{00FF0060-0039-4E4F-9D50-00FE001600B9}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{000700EE-0074-41E4-BFF5-00C600F50016}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1829,7 +1837,7 @@
           <xm:sqref>B2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{00A300E1-0061-49DF-9990-0091005C000B}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{00B900CA-0040-4177-960F-00AA00410090}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1846,7 +1854,7 @@
           <xm:sqref>F2:G2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{000C00B7-004C-49A7-A4C3-0022006F00B2}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{002E0018-0034-448F-82E3-00DB009A002A}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
@@ -1863,7 +1871,7 @@
           <xm:sqref>F3:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{00A000F0-00B8-44E6-84F4-002B00C10039}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{002C00CA-00D7-4215-BCE2-000300C9006B}">
             <xm:f>1</xm:f>
             <x14:dxf>
               <font>
